--- a/Trendyol.Excelsior.Tests/spreadsheets/GeneticTypeWorkbook.xlsx
+++ b/Trendyol.Excelsior.Tests/spreadsheets/GeneticTypeWorkbook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>bar6049160AB58303kod</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>barcode324</t>
+  </si>
+  <si>
+    <t>UpdatedDate</t>
+  </si>
+  <si>
+    <t>dsfg</t>
   </si>
 </sst>
 </file>
@@ -84,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,53 +374,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2">
+        <v>42964</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" s="2">
+        <v>42964.470081018517</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>55</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
